--- a/app/src/main/assets/res/220kV砚后甲线二次措施单.xlsx
+++ b/app/src/main/assets/res/220kV砚后甲线二次措施单.xlsx
@@ -14,33 +14,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <r>
       <rPr>
         <b/>
         <u/>
-        <sz val="14"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="宋体 (正文)_x0000_"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  肇庆供电局500kV砚都变电站  </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="宋体 (正文)_x0000_"/>
         <charset val="134"/>
       </rPr>
       <t>厂站二次设备及回路工作安全技术措施单</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">   措施单编号：01-001</t>
+    <t>措施单编号：01-001</t>
   </si>
   <si>
     <t>工作票编号</t>
@@ -112,62 +111,10 @@
     <t>拔出主一保护装置光纤通道尾纤：220kV砚后甲线主一保护收信、220kV砚后甲线主一保护发信，并用防尘套分别密封拔出的尾纤接头。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打开二次电流回路连接片：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1D1~1D8，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密封非工作侧端子</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打开二次电压回路连接片：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1D9~1D14，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密封非工作侧端子</t>
-    </r>
+    <t>打开二次电流回路连接片：1D1~1D8，密封非工作侧端子</t>
+  </si>
+  <si>
+    <t>打开二次电压回路连接片：1D9~1D14，密封非工作侧端子</t>
   </si>
   <si>
     <t>（五）</t>
@@ -176,33 +123,7 @@
     <t>拔出主二保护装置光纤通道尾纤：220kV砚后甲线主二保护收信、220kV砚后甲线主二保护发信，并用防尘套分别密封拔出的尾纤接头。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打开二次电流回路连接片：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1D1、1D3、1D5、1D7，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密封非工作侧端子</t>
-    </r>
+    <t>打开二次电流回路连接片：1D1、1D3、1D5、1D7，密封非工作侧端子</t>
   </si>
   <si>
     <t>（六）</t>
@@ -211,33 +132,7 @@
     <t>打开220kV砚后甲线二次电流回路连接片：1YC1~1YC8，密封非工作侧端子</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打开220kV砚后甲线二次电压回路连接片：1YV1~1YV8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密封非工作侧端子</t>
-    </r>
+    <t>打开220kV砚后甲线二次电压回路连接片：1YV1~1YV8，密封非工作侧端子</t>
   </si>
   <si>
     <t>（七）</t>
@@ -261,88 +156,26 @@
     <t>交流回路绝缘检查(在220kV砚后甲线2669开关端子箱操作)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打开以下CT回路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接地线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连接片：1P6、1P12、1P29、1P34、1P41、1P47</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打开母差保护二CT电流回路连接片：1P13~1P16，并</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并用绝缘胶布密封保护侧端子。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打开母差保护一CT电流回路连接片：1P19~1P22，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并用绝缘胶布密封保护侧端子。</t>
-    </r>
+    <t>打开以下CT回路接地线连接片：1P6、1P12、1P29、1P34、1P41、1P47</t>
+  </si>
+  <si>
+    <t>打开母差保护二CT电流回路连接片：1P13~1P16，并并用绝缘胶布密封保护侧端子。</t>
+  </si>
+  <si>
+    <t>打开母差保护一CT电流回路连接片：1P19~1P22，并用绝缘胶布密封保护侧端子。</t>
   </si>
   <si>
     <t>以下空白</t>
   </si>
   <si>
-    <t>工作负责人</t>
+    <t>工作负责人
+（审批人）</t>
   </si>
   <si>
     <t>执行人</t>
   </si>
   <si>
     <t>监护人</t>
-  </si>
-  <si>
-    <t>（审批人）</t>
   </si>
   <si>
     <t>恢复人</t>
@@ -354,7 +187,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10.5"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="仿宋"/>
         <charset val="134"/>
@@ -363,7 +196,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -378,11 +211,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +226,28 @@
     <font>
       <b/>
       <u/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="宋体 (正文)_x0000_"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="宋体 (正文)_x0000_"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -400,50 +255,136 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="10.5"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="仿宋"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="仿宋"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="仿宋"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -456,25 +397,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,22 +414,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,82 +427,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="宋体 (正文)_x0000_"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -607,19 +449,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,156 +623,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -792,7 +634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -801,112 +643,113 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,6 +765,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,11 +815,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,48 +836,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1016,10 +844,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1028,133 +856,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,73 +991,73 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1552,62 +1380,70 @@
   <sheetPr/>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="22.8333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="27.1666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="22.8333333333333" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34.8" customHeight="1" spans="1:9">
+    <row r="1" ht="34.75" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:9">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:9">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1616,18 +1452,18 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
+    <row r="5" ht="30" customHeight="1" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -1635,14 +1471,14 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
+    <row r="6" ht="30" customHeight="1" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
         <v>11</v>
@@ -1650,14 +1486,14 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
+    <row r="7" ht="30" customHeight="1" spans="1:9">
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="11" t="s">
         <v>12</v>
@@ -1665,14 +1501,14 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:9">
+    <row r="8" ht="30" customHeight="1" spans="1:9">
       <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="11" t="s">
         <v>13</v>
@@ -1680,14 +1516,14 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:9">
+    <row r="9" ht="30" customHeight="1" spans="1:9">
       <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11" t="s">
         <v>14</v>
@@ -1695,14 +1531,14 @@
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:9">
+    <row r="10" ht="30" customHeight="1" spans="1:9">
       <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
         <v>15</v>
@@ -1710,14 +1546,14 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
+    <row r="11" ht="30" customHeight="1" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
         <v>17</v>
@@ -1725,14 +1561,14 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
+    <row r="12" ht="30" customHeight="1" spans="1:9">
       <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
         <v>12</v>
@@ -1740,14 +1576,14 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:9">
+    <row r="13" ht="30" customHeight="1" spans="1:9">
       <c r="A13" s="7">
         <v>2</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
         <v>18</v>
@@ -1755,14 +1591,14 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:9">
+    <row r="14" ht="35" customHeight="1" spans="1:9">
       <c r="A14" s="7">
         <v>3</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
         <v>19</v>
@@ -1770,14 +1606,14 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:9">
+    <row r="15" ht="30" customHeight="1" spans="1:9">
       <c r="A15" s="7">
         <v>4</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
         <v>15</v>
@@ -1785,14 +1621,14 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="29.55" customHeight="1" spans="1:9">
+    <row r="16" ht="30" customHeight="1" spans="1:9">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
         <v>21</v>
@@ -1800,29 +1636,29 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="43.95" customHeight="1" spans="1:9">
+    <row r="17" ht="53" customHeight="1" spans="1:9">
       <c r="A17" s="7">
         <v>1</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="8"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
+    <row r="18" ht="30" customHeight="1" spans="1:9">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
         <v>11</v>
@@ -1830,14 +1666,14 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="48.75" customHeight="1" spans="1:9">
+    <row r="19" ht="54" customHeight="1" spans="1:9">
       <c r="A19" s="7">
         <v>1</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="11" t="s">
         <v>24</v>
@@ -1845,104 +1681,104 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="23.55" customHeight="1" spans="1:9">
+    <row r="20" ht="35" customHeight="1" spans="1:9">
       <c r="A20" s="7">
         <v>2</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="8"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="23.55" customHeight="1" spans="1:9">
+    <row r="21" ht="35" customHeight="1" spans="1:9">
       <c r="A21" s="7">
         <v>3</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="8"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
+    <row r="22" ht="30" customHeight="1" spans="1:9">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="48.75" customHeight="1" spans="1:9">
+    <row r="23" ht="50" customHeight="1" spans="1:9">
       <c r="A23" s="7">
         <v>1</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="8"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:9">
+    <row r="24" ht="35" customHeight="1" spans="1:9">
       <c r="A24" s="7">
         <v>2</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="8"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="23.55" customHeight="1" spans="1:9">
+    <row r="25" ht="35" customHeight="1" spans="1:9">
       <c r="A25" s="7">
         <v>3</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="8"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="29.55" customHeight="1" spans="1:9">
+    <row r="26" ht="30" customHeight="1" spans="1:9">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="9" t="s">
         <v>21</v>
@@ -1950,44 +1786,44 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="22.35" customHeight="1" spans="1:9">
+    <row r="27" ht="35" customHeight="1" spans="1:9">
       <c r="A27" s="7">
         <v>1</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="8"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="23.55" customHeight="1" spans="1:9">
+    <row r="28" ht="35" customHeight="1" spans="1:9">
       <c r="A28" s="7">
         <v>2</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="8"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
+    <row r="29" ht="30" customHeight="1" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9" t="s">
         <v>34</v>
@@ -1995,59 +1831,59 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="8"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="22.35" customHeight="1" spans="1:9">
+    <row r="30" ht="30" customHeight="1" spans="1:9">
       <c r="A30" s="7">
         <v>1</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="8"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="22.35" customHeight="1" spans="1:9">
+    <row r="31" ht="30" customHeight="1" spans="1:9">
       <c r="A31" s="7">
         <v>2</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="8"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
+    <row r="32" ht="30" customHeight="1" spans="1:9">
       <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="8"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
+    <row r="33" ht="35" customHeight="1" spans="1:9">
       <c r="A33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
         <v>39</v>
@@ -2055,129 +1891,135 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="8"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="22.35" customHeight="1" spans="1:9">
+    <row r="34" ht="35" customHeight="1" spans="1:9">
       <c r="A34" s="7">
         <v>1</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="8"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="33.15" customHeight="1" spans="1:9">
+    <row r="35" ht="35" customHeight="1" spans="1:9">
       <c r="A35" s="7">
         <v>2</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="8"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="22.35" customHeight="1" spans="1:9">
+    <row r="36" ht="35" customHeight="1" spans="1:9">
       <c r="A36" s="7">
         <v>3</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="8"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="7"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
+    <row r="37" ht="30" customHeight="1" spans="1:9">
       <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="8"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="7"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
+    <row r="38" ht="30" customHeight="1" spans="1:9">
       <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="8"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
-      <c r="A39" s="17" t="s">
+    <row r="39" ht="30" customHeight="1" spans="1:9">
+      <c r="A39" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="8" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8" t="s">
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
-      <c r="A40" s="21" t="s">
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:9">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="8" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="1:9">
+      <c r="A41" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="15.9" customHeight="1" spans="1:9">
-      <c r="A41" s="22" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="40" customHeight="1" spans="1:9">
+      <c r="A42" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-    </row>
-    <row r="42" s="2" customFormat="1" spans="1:1">
-      <c r="A42" s="23" t="s">
-        <v>50</v>
-      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -2220,11 +2062,11 @@
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="D38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A39:B40"/>
     <mergeCell ref="C39:D40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
